--- a/metadata_dataset.xlsx
+++ b/metadata_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\universitat\2n1q\me\projecte\practicaME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15DB0BF-0A0F-43BE-B228-259B2BBB2F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AD5D94-ECF8-4E9C-8AB1-40A5B0D3B187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2448" yWindow="9576" windowWidth="17280" windowHeight="9828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2448" yWindow="2412" windowWidth="17280" windowHeight="9828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/metadata_dataset.xlsx
+++ b/metadata_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\universitat\2n1q\me\projecte\practicaME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AD5D94-ECF8-4E9C-8AB1-40A5B0D3B187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D7FB18-28DA-4BC3-92FA-0F511DF0DAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2448" yWindow="2412" windowWidth="17280" windowHeight="9828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
